--- a/GN_Data/top100To200.xlsx
+++ b/GN_Data/top100To200.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqi\Documents\GitHub\keg-operator-data\GN_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="210" yWindow="435" windowWidth="21240" windowHeight="9210"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="useragentTop300" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="248">
   <si>
     <t>USERAGENT</t>
   </si>
@@ -38,292 +43,917 @@
     <t>j2me</t>
   </si>
   <si>
+    <t xml:space="preserve">淘宝 3.0.5 </t>
+  </si>
+  <si>
+    <t>ppstream</t>
+  </si>
+  <si>
+    <t>mi 2_4.1.1_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>nokiae72-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qqbrowser </t>
+  </si>
+  <si>
+    <t>nokiae66</t>
+  </si>
+  <si>
+    <t>samsung-gt-s3850</t>
+  </si>
+  <si>
+    <t>mi-one plus; miui</t>
+  </si>
+  <si>
+    <t>gt-n7100_4.1.1_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>美图秀秀</t>
+  </si>
+  <si>
+    <t>android,iphone</t>
+  </si>
+  <si>
+    <t>eno android client</t>
+  </si>
+  <si>
+    <t>amb_390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">京东 2.4.0 </t>
+  </si>
+  <si>
+    <t>5233</t>
+  </si>
+  <si>
+    <t>e66</t>
+  </si>
+  <si>
+    <t>weibo 1.7</t>
+  </si>
+  <si>
+    <t>nokia5130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozilla 5.0 </t>
+  </si>
+  <si>
+    <t>~???240</t>
+  </si>
+  <si>
+    <t>nokiac5-00</t>
+  </si>
+  <si>
+    <t>nokia 3gpp-gba</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>nokiac3-00</t>
+  </si>
+  <si>
+    <t>samsung-gt-s5230c</t>
+  </si>
+  <si>
+    <t>samsung-gt-i9308_td</t>
+  </si>
+  <si>
+    <t>sogoumap for android</t>
+  </si>
+  <si>
+    <t>nokiac6-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qq音乐 3.4.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">微博 3.5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qzone 3.6.3.2 </t>
+  </si>
+  <si>
+    <t>mi-one plus_2.3.5_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>nokia</t>
+  </si>
+  <si>
+    <t>calendar_new_ui</t>
+  </si>
+  <si>
+    <t>gt-i9300_4.0.4_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>nokia3208c</t>
+  </si>
+  <si>
+    <t>nokiae5-00</t>
+  </si>
+  <si>
+    <t>qqmusiciphone</t>
+  </si>
+  <si>
+    <t>nokiax2-01</t>
+  </si>
+  <si>
+    <t>nokia5250</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>飞信</t>
+  </si>
+  <si>
+    <t>okia6120c</t>
+  </si>
+  <si>
+    <t>xiaonei</t>
+  </si>
+  <si>
+    <t>gt-i9500_4.2.2_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>nokiax6-00</t>
+  </si>
+  <si>
+    <t>select USERAGENT USERAGENT, CNT CNT from (select * from "BJ_GB"."USERAGENT_CNT_TOP300_0702")</t>
+  </si>
+  <si>
+    <t>moji-iphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geoServer</t>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIS,发布地图数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统,影音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIUI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>com.apple.maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淘宝 3.0.5 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板,视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>samsung-android-mms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMS 彩信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星彩信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topandroidsdk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crazyidiom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂猜成语答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲益智</t>
+  </si>
+  <si>
+    <t>休闲益智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>android365</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>365日历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看日历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>android-async-http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maui browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinaweather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuanhuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻小说精选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻,电子书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>runemasterpuzzle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲益智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myhttpclient 1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心水族箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国海证券金贝壳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计,咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美图秀秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">腾讯新闻 2.9 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ppstream</t>
-  </si>
-  <si>
-    <t>samsung-android-mms</t>
-  </si>
-  <si>
-    <t>topandroidsdk</t>
-  </si>
-  <si>
-    <t>crazyidiom</t>
-  </si>
-  <si>
-    <t>android365</t>
-  </si>
-  <si>
-    <t>android-async-http</t>
-  </si>
-  <si>
-    <t>mi 2_4.1.1_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腾讯新闻 2.9 </t>
-  </si>
-  <si>
-    <t>nokiae72-1</t>
-  </si>
-  <si>
-    <t>maui browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qqbrowser </t>
-  </si>
-  <si>
-    <t>nokiae66</t>
-  </si>
-  <si>
-    <t>sinaweather</t>
-  </si>
-  <si>
-    <t>samsung-gt-s3850</t>
-  </si>
-  <si>
-    <t>搜狗地图</t>
-  </si>
-  <si>
-    <t>xuanhuan</t>
-  </si>
-  <si>
-    <t>runemasterpuzzle</t>
-  </si>
-  <si>
-    <t>myhttpclient 1.0</t>
-  </si>
-  <si>
-    <t>curl</t>
-  </si>
-  <si>
-    <t>开心水族箱</t>
-  </si>
-  <si>
-    <t>mi-one plus; miui</t>
-  </si>
-  <si>
-    <t>gt-n7100_4.1.1_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t>美图秀秀</t>
-  </si>
-  <si>
-    <t>android,iphone</t>
-  </si>
-  <si>
-    <t>eno android client</t>
-  </si>
-  <si>
-    <t>amb_390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tigermap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎宝典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server-bag [iphone os,6.1.3,10b329,iphone4,1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nokia5800w xpressmusic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人客户端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mitalk 771 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上人人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft-cryptoapi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryptoAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰碰猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripletown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三重镇 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umeread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读,看书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友阅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ozilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日头条 2.5.3 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tingmo-ios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>templerun2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神魔逃亡2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作竞技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如懿传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后宫如懿传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">百度 4.9 rv:4.9.0.0 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commcentermobilehelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple内置进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发彩信相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd4iphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>messenger  2.5.2_android_ww</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meilishuo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack'd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">内涵段子 2.2.4 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内涵段子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skisafari</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑雪大冒险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育竞技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski Safari </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weibo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mozilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aimeituan </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AiMeiTuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrotfantasy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrotfantasy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保卫萝卜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows phone search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">windows phone search </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索本地</t>
+  </si>
+  <si>
+    <t>dorado wap-browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dorado</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pris</t>
-  </si>
-  <si>
-    <t>springboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>weicopro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weicopro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同志交友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JACK'D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuneMasterPuzzle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨迹天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>officereye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">京东 2.4.0 </t>
-  </si>
-  <si>
-    <t>dorado wap-browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">windows phone search </t>
-  </si>
-  <si>
-    <t>carrotfantasy</t>
-  </si>
-  <si>
-    <t>5233</t>
-  </si>
-  <si>
-    <t>fantasy</t>
-  </si>
-  <si>
-    <t>e66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aimeituan </t>
-  </si>
-  <si>
-    <t>遇见</t>
-  </si>
-  <si>
-    <t>skisafari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内涵段子 2.2.4 </t>
-  </si>
-  <si>
-    <t>weibo 1.7</t>
-  </si>
-  <si>
-    <t>nokia5130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mozilla 5.0 </t>
-  </si>
-  <si>
-    <t>~???240</t>
-  </si>
-  <si>
-    <t>nokiac5-00</t>
-  </si>
-  <si>
-    <t>idp</t>
-  </si>
-  <si>
-    <t>nokia 3gpp-gba</t>
-  </si>
-  <si>
-    <t>meilishuo</t>
-  </si>
-  <si>
-    <t>jack'd</t>
-  </si>
-  <si>
-    <t>messenger  2.5.2_android_ww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百度 4.9 rv:4.9.0.0 </t>
-  </si>
-  <si>
-    <t>commcentermobilehelper</t>
-  </si>
-  <si>
-    <t>jd4iphone</t>
-  </si>
-  <si>
-    <t>5230</t>
-  </si>
-  <si>
-    <t>nokiac3-00</t>
-  </si>
-  <si>
-    <t>gamed</t>
-  </si>
-  <si>
-    <t>samsung-gt-s5230c</t>
-  </si>
-  <si>
-    <t>samsung-gt-i9308_td</t>
-  </si>
-  <si>
-    <t>sogoumap for android</t>
-  </si>
-  <si>
-    <t>nokiac6-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qq音乐 3.4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">微博 3.5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">qzone 3.6.3.2 </t>
-  </si>
-  <si>
-    <t>如懿传</t>
-  </si>
-  <si>
-    <t>templerun2</t>
-  </si>
-  <si>
-    <t>mi-one plus_2.3.5_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t>nokia</t>
-  </si>
-  <si>
-    <t>tingmo-ios</t>
-  </si>
-  <si>
-    <t>calendar_new_ui</t>
-  </si>
-  <si>
-    <t>gt-i9300_4.0.4_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日头条 2.5.3 </t>
-  </si>
-  <si>
-    <t>ozilla</t>
-  </si>
-  <si>
-    <t>nokia3208c</t>
-  </si>
-  <si>
-    <t>umeread</t>
-  </si>
-  <si>
-    <t>tripletown</t>
-  </si>
-  <si>
-    <t>nokiae5-00</t>
-  </si>
-  <si>
-    <t>qqmusiciphone</t>
-  </si>
-  <si>
-    <t>nokiax2-01</t>
-  </si>
-  <si>
-    <t>碰碰猫</t>
-  </si>
-  <si>
-    <t>nokia5250</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>microsoft-cryptoapi</t>
-  </si>
-  <si>
-    <t>飞信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitalk 771 </t>
-  </si>
-  <si>
-    <t>okia6120c</t>
-  </si>
-  <si>
-    <t>xiaonei</t>
-  </si>
-  <si>
-    <t>nokia5800w xpressmusic</t>
-  </si>
-  <si>
-    <t>gt-i9500_4.2.2_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t>nokiax6-00</t>
-  </si>
-  <si>
-    <t>server-bag [iphone os,6.1.3,10b329,iphone4,1]</t>
-  </si>
-  <si>
-    <t>tigermap</t>
-  </si>
-  <si>
-    <t>select USERAGENT USERAGENT, CNT CNT from (select * from "BJ_GB"."USERAGENT_CNT_TOP300_0702")</t>
-  </si>
-  <si>
-    <t>moji-iphone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -373,12 +1003,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,91 +1019,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -505,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +1108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,56 +1320,119 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B201"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="38.75" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1">
         <v>747926</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>723203</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>715441</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>708262</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -809,7 +1440,7 @@
         <v>701488</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -817,789 +1448,1288 @@
         <v>699636</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>671677</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>671348</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>654986</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>654263</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>649425</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25">
+    <row r="13" spans="1:8" ht="14.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>642762</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>636094</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1">
         <v>617740</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25">
+    <row r="16" spans="1:8" ht="14.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>610454</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1">
         <v>601712</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>590115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>586700</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>586058</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>584062</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1">
         <v>577815</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>576060</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1">
         <v>575864</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1">
         <v>563280</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25">
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1">
         <v>563278</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1">
         <v>561400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1">
         <v>559830</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1">
         <v>557641</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25">
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>556100</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25">
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>554592</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25">
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1">
         <v>554200</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25">
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>532676</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25">
+    <row r="34" spans="1:7" ht="14.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
         <v>522655</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25">
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1">
         <v>521443</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25">
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1">
         <v>516190</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25">
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="B37" s="1">
         <v>513223</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25">
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="B38" s="1">
         <v>512065</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25">
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="B39" s="1">
         <v>505584</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
         <v>497417</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25">
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1">
         <v>495624</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25">
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="B42" s="1">
         <v>490055</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25">
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="B43" s="1">
         <v>487464</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25">
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
         <v>483616</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="B45" s="1">
         <v>476459</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1">
         <v>475007</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25">
+    <row r="47" spans="1:7" ht="27">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="B47" s="1">
         <v>472308</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25">
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="B48" s="1">
         <v>463526</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25">
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="B49" s="1">
         <v>462971</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25">
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1">
         <v>443551</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25">
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
         <v>440524</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25">
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>437509</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25">
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
         <v>430658</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25">
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
         <v>426657</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25">
+    <row r="55" spans="1:8" ht="14.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1">
         <v>424227</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25">
+    <row r="56" spans="1:8" ht="14.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B56" s="1">
         <v>416209</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B57" s="1">
         <v>413098</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1">
         <v>411768</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25">
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="B59" s="1">
         <v>402275</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25">
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1">
         <v>395617</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25">
+    <row r="61" spans="1:8" ht="14.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B61" s="1">
         <v>395197</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25">
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1">
         <v>395137</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25">
+      <c r="F62" t="s">
+        <v>185</v>
+      </c>
+      <c r="H62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1">
         <v>393371</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25">
+    <row r="64" spans="1:8" ht="14.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1">
         <v>392987</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25">
+    <row r="65" spans="1:6" ht="14.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B65" s="1">
         <v>388417</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25">
+    <row r="66" spans="1:6" ht="14.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1">
         <v>387257</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25">
+    <row r="67" spans="1:6" ht="14.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1">
         <v>386563</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25">
+    <row r="68" spans="1:6" ht="14.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1">
         <v>381191</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25">
+    <row r="69" spans="1:6" ht="14.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1">
         <v>381061</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25">
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1">
         <v>378248</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25">
+    <row r="71" spans="1:6" ht="14.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1">
         <v>376479</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25">
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
         <v>369487</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25">
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1">
         <v>368391</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25">
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B74" s="1">
         <v>366708</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25">
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1">
         <v>366336</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25">
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1">
         <v>365762</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25">
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1">
         <v>362067</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25">
+    <row r="78" spans="1:6" ht="14.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B78" s="1">
         <v>361516</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25">
+    <row r="79" spans="1:6" ht="14.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B79" s="1">
         <v>356862</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25">
+    <row r="80" spans="1:6" ht="14.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B80" s="1">
         <v>356048</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25">
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1">
         <v>349477</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25">
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1">
         <v>349204</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1">
         <v>348341</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B84" s="1">
         <v>347610</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.25">
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B85" s="1">
         <v>346859</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25">
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B86" s="1">
         <v>345376</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B87" s="1">
         <v>343512</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25">
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B88" s="1">
         <v>336940</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25">
+    <row r="89" spans="1:7" ht="14.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B89" s="1">
         <v>335596</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25">
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B90" s="1">
         <v>334660</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1">
         <v>332562</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="B92" s="1">
         <v>331883</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="14.25">
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1">
         <v>328523</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="14.25">
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1">
         <v>327022</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="14.25">
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B95" s="1">
         <v>323576</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B96" s="1">
         <v>322931</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="14.25">
+      <c r="C96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1">
         <v>322731</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25">
+    <row r="98" spans="1:6" ht="14.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1">
         <v>321730</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.25">
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B99" s="1">
         <v>321161</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25">
+    <row r="100" spans="1:6" ht="14.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B100" s="1">
         <v>320105</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25">
+    <row r="101" spans="1:6" ht="14.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1">
         <v>319753</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="14.25">
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.25">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="14.25">
+    <row r="103" spans="1:6" ht="14.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="14.25">
+    <row r="104" spans="1:6" ht="14.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="14.25">
+    <row r="105" spans="1:6" ht="14.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="14.25">
+    <row r="106" spans="1:6" ht="14.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="14.25">
+    <row r="107" spans="1:6" ht="14.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="14.25">
+    <row r="108" spans="1:6" ht="14.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="14.25">
+    <row r="109" spans="1:6" ht="14.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="14.25">
+    <row r="110" spans="1:6" ht="14.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="14.25">
+    <row r="111" spans="1:6" ht="14.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="14.25">
+    <row r="112" spans="1:6" ht="14.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="14.25">
@@ -1872,6 +3002,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1885,7 +3016,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
